--- a/test/test_multizone/永田先生の放射計算正解値.xlsx
+++ b/test/test_multizone/永田先生の放射計算正解値.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_multizone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE37A2E-2B05-4081-82E1-E3870D895314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABD695-23D8-49B0-871E-BF16612CC589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7606B39-A6BC-4A8B-9D07-29F5962C51C7}"/>
+    <workbookView xWindow="1044" yWindow="1524" windowWidth="18924" windowHeight="10296" xr2:uid="{D7606B39-A6BC-4A8B-9D07-29F5962C51C7}"/>
   </bookViews>
   <sheets>
     <sheet name="標準プランLDK" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="9.9999999999999995E-7"/>
+  <calcPr calcId="191029" iterateDelta="1E-8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -334,7 +334,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -421,9 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -436,19 +433,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,37 +615,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.3103830248944766</c:v>
+                  <c:v>5.3010337677337338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2008752218053864</c:v>
+                  <c:v>5.1917187539428671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8592012500032178</c:v>
+                  <c:v>5.8488858038262128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.248920984513906</c:v>
+                  <c:v>5.2396799316636056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5032914287468957</c:v>
+                  <c:v>5.4936025563150341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3792130642289742</c:v>
+                  <c:v>5.3697426315605323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.729260991384475</c:v>
+                  <c:v>6.71741386450657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.28214028555246</c:v>
+                  <c:v>5.2728407498911656</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.068035670095659</c:v>
+                  <c:v>6.0573525782378237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0635062758384137</c:v>
+                  <c:v>6.0528311577830918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4457474664811061</c:v>
+                  <c:v>5.4361599000041165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,37 +1231,37 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>91.823395265393188</c:v>
+                  <c:v>91.661735502174849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.268986252180284</c:v>
+                  <c:v>29.217456677957262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>366.00973799345252</c:v>
+                  <c:v>365.36536166985195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.072987230995516</c:v>
+                  <c:v>56.972507293654992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.26002320304346</c:v>
+                  <c:v>194.91625841074497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.68640416670928</c:v>
+                  <c:v>129.45808474531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1710.3311717095994</c:v>
+                  <c:v>-1707.320059325473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.967267271771618</c:v>
+                  <c:v>75.833523006494843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>324.43952288127053</c:v>
+                  <c:v>323.86833518279127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>323.10981682147491</c:v>
+                  <c:v>322.54097009638105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117.69303062330729</c:v>
+                  <c:v>117.48582674011126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,14 +2790,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
+      <xdr:colOff>605790</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
@@ -2826,14 +2826,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
+      <xdr:colOff>605790</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
@@ -3263,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88471ED-63A1-4579-934F-8023F43885F4}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -3274,353 +3274,355 @@
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9">
-        <v>1.1838382150736246</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="6">
+        <v>1.1838381541118148</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4.9775</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>B3/$B$14</f>
         <v>3.8082960027237642E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <f t="shared" ref="D3:D13" si="0">0.5*(1-SIGN(1-4*C3/$I$2)*SQRT(ABS(1-4*C3/$I$2)))</f>
-        <v>3.3276374983290113E-2</v>
-      </c>
-      <c r="E3" s="2">
+        <v>3.3276376757945703E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.9</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F13" si="1">E3/(1-E3*D3)*4*0.0000000568*($I$3+273.15)^3</f>
-        <v>5.3103830248944766</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="3">
+        <f>E3/(1-E3*D3)*4*0.0000000567*($I$3+273.15)^3</f>
+        <v>5.3010337677337338</v>
+      </c>
+      <c r="G3" s="5">
         <f>B3*F3*($I$4-P3)</f>
-        <v>91.823395265393188</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>91.661735502174849</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="4">
-        <f t="shared" ref="L3:L13" si="2">E3/(1-E3*C3)*4*0.0000000568*($I$3+273.15)^3</f>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L13" si="1">E3/(1-E3*C3)*4*0.0000000568*($I$3+273.15)^3</f>
         <v>5.334170665134212</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <f>B3*L3*($O$4-P3)</f>
         <v>89.966628573229656</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.62</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" ref="C4:C13" si="3">B4/$B$14</f>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C13" si="2">B4/$B$14</f>
         <v>1.2394654996308384E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>1.0581865114719202E-2</v>
-      </c>
-      <c r="E4" s="2">
+        <v>1.0581865665523826E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F13" si="3">E4/(1-E4*D4)*4*0.0000000567*($I$3+273.15)^3</f>
+        <v>5.1917187539428671</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G13" si="4">B4*F4*($I$4-P4)</f>
+        <v>29.217456677957262</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUMPRODUCT(B3:B13,F3:F13,P3:P13)/SUMPRODUCT(B3:B13,F3:F13)</f>
+        <v>21.473891391258764</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3">
         <f t="shared" si="1"/>
-        <v>5.2008752218053864</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G13" si="4">B4*F4*($I$4-P4)</f>
-        <v>29.268986252180284</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2">
-        <f>SUMPRODUCT(B3:B13,F3:F13,P3:P13)/SUMPRODUCT(B3:B13,F3:F13)</f>
-        <v>21.473891353624342</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="4">
-        <f t="shared" si="2"/>
         <v>5.2094562291481132</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <f t="shared" ref="M4:M13" si="5">B4*L4*($O$4-P4)</f>
         <v>28.596354909278663</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="7">
         <f>SUMPRODUCT(B3:B13,L3:L13,P3:P13)/SUMPRODUCT(B3:B13,L3:L13)</f>
         <v>21.38846707894119</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>17.981999999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13758067045902306</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13423474277704123</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>0.13758067045902306</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13423473459619684</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="4">
+        <v>5.8488858038262128</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
+        <v>365.36536166985195</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>5.8592012500032178</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="4"/>
-        <v>366.00973799345252</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4">
-        <f t="shared" si="2"/>
         <v>5.8793387934957151</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <f t="shared" si="5"/>
         <v>358.23643203157815</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3947697616324221E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0655511272904825E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="3"/>
-        <v>2.3947697616324221E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.0655510186331105E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="4">
+        <v>5.2396799316636056</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>56.972507293654992</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>5.248920984513906</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="4"/>
-        <v>57.072987230995516</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4">
-        <f t="shared" si="2"/>
         <v>5.2648159562097367</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <f t="shared" si="5"/>
         <v>55.838121853662045</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10.2135</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
+        <f t="shared" si="2"/>
+        <v>7.8143709138762757E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>7.1058019488296542E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="3"/>
-        <v>7.8143709138762757E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>7.1058015526076101E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="4">
+        <v>5.4936025563150341</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>194.91625841074497</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="3">
         <f t="shared" si="1"/>
-        <v>5.5032914287468957</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="4"/>
-        <v>195.26002320304346</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4">
-        <f t="shared" si="2"/>
         <v>5.5410415424977923</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <f t="shared" si="5"/>
         <v>191.76496696542495</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>6.94</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
+        <f t="shared" si="2"/>
+        <v>5.3098089922456904E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7067875731322595E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="3"/>
-        <v>5.3098089922456904E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7067873181623421E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="4">
+        <v>5.3697426315605323</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="4"/>
+        <v>129.45808474531</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>5.3792130642289742</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="4"/>
-        <v>129.68640416670928</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4">
-        <f t="shared" si="2"/>
         <v>5.4098722527482046</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <f t="shared" si="5"/>
         <v>127.21834776622005</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>29.81</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.22807695397527958</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26053997792068251</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="3"/>
-        <v>0.22807695397527958</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26053995720536782</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="4">
+        <v>6.71741386450657</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>-1707.320059325473</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>6.729260991384475</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="4"/>
-        <v>-1710.3311717095994</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4">
-        <f t="shared" si="2"/>
         <v>6.4818730284907371</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <f t="shared" si="5"/>
         <v>-1663.96030528389</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
@@ -3628,177 +3630,177 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1675229435010312E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7513370564825612E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="3"/>
-        <v>3.1675229435010312E-2</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>2.7513369106772323E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="4">
+        <v>5.2728407498911656</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>75.833523006494843</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v>5.28214028555246</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="4"/>
-        <v>75.967267271771618</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="4">
-        <f t="shared" si="2"/>
         <v>5.3025060437005891</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <f t="shared" si="5"/>
         <v>74.384900062959815</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>21.612500000000001</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16535770438747838</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16785442445731341</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="3"/>
-        <v>0.16535770438747838</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16785441362954084</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="4">
+        <v>6.0573525782378237</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="4"/>
+        <v>323.86833518279127</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>6.068035670095659</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="4"/>
-        <v>324.43952288127053</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4">
-        <f t="shared" si="2"/>
         <v>6.0520165676203357</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <f t="shared" si="5"/>
         <v>312.40960242126721</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>21.54</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16480300532128553</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16714981863469519</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="3"/>
-        <v>0.16480300532128553</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16714980786608913</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F12" s="4">
+        <v>6.0528311577830918</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="4"/>
+        <v>322.54097009638105</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>6.0635062758384137</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="4"/>
-        <v>323.10981682147491</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4">
-        <f t="shared" si="2"/>
         <v>6.048469046555998</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <f t="shared" si="5"/>
         <v>311.17910047524464</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>8.7360000000000007</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6839324720833357E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0068016731543383E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>6.6839324720833357E-2</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>6.0068013427165723E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="4">
+        <v>5.4361599000041165</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="4"/>
+        <v>117.48582674011126</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3">
         <f t="shared" si="1"/>
-        <v>5.4457474664811061</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="4"/>
-        <v>117.69303062330729</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4">
-        <f t="shared" si="2"/>
         <v>5.4810590125774628</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <f t="shared" si="5"/>
         <v>114.36585022502793</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>SUM(B3:B13)</f>
         <v>130.70149999999998</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>0.99999993482317262</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>1.0000000000020948</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="19" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
@@ -3814,146 +3816,161 @@
       </c>
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M21" s="1">
+      <c r="M21" s="9">
         <f>F3</f>
-        <v>5.3103830248944766</v>
+        <v>5.3010337677337338</v>
       </c>
       <c r="N21">
         <v>5.3010247448551802</v>
       </c>
       <c r="O21">
         <f>ABS(M21-N21)</f>
-        <v>9.3582800392963961E-3</v>
+        <v>9.0228785536439204E-6</v>
       </c>
     </row>
     <row r="22" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M22" s="1">
+      <c r="M22" s="9">
         <f t="shared" ref="M22:M31" si="6">F4</f>
-        <v>5.2008752218053864</v>
+        <v>5.1917187539428671</v>
       </c>
       <c r="N22">
         <v>5.1917160677890797</v>
       </c>
       <c r="O22">
         <f t="shared" ref="O22:O31" si="7">ABS(M22-N22)</f>
-        <v>9.1591540163067364E-3</v>
+        <v>2.6861537874012242E-6</v>
       </c>
     </row>
     <row r="23" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M23" s="1">
+      <c r="M23" s="9">
         <f t="shared" si="6"/>
-        <v>5.8592012500032178</v>
+        <v>5.8488858038262128</v>
       </c>
       <c r="N23">
         <v>5.8488351692565104</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>1.0366080746707418E-2</v>
+        <v>5.0634569702445731E-5</v>
       </c>
     </row>
     <row r="24" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M24" s="1">
+      <c r="M24" s="9">
         <f t="shared" si="6"/>
-        <v>5.248920984513906</v>
+        <v>5.2396799316636056</v>
       </c>
       <c r="N24">
         <v>5.2396745343302999</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>9.2464501836060364E-3</v>
+        <v>5.3973333056234196E-6</v>
       </c>
     </row>
     <row r="25" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M25" s="1">
+      <c r="M25" s="9">
         <f t="shared" si="6"/>
-        <v>5.5032914287468957</v>
+        <v>5.4936025563150341</v>
       </c>
       <c r="N25">
         <v>5.4935809211203601</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>9.7105076265355805E-3</v>
+        <v>2.1635194674018976E-5</v>
       </c>
     </row>
     <row r="26" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="1">
+      <c r="M26" s="9">
         <f t="shared" si="6"/>
-        <v>5.3792130642289742</v>
+        <v>5.3697426315605323</v>
       </c>
       <c r="N26">
         <v>5.3697293299255504</v>
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
-        <v>9.483734303423752E-3</v>
+        <v>1.3301634981921495E-5</v>
       </c>
     </row>
     <row r="27" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M27" s="1">
+      <c r="M27" s="9">
         <f t="shared" si="6"/>
-        <v>6.729260991384475</v>
+        <v>6.71741386450657</v>
       </c>
       <c r="N27">
         <v>6.7172447515445697</v>
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
-        <v>1.2016239839905296E-2</v>
+        <v>1.6911296200028403E-4</v>
       </c>
     </row>
     <row r="28" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M28" s="1">
+      <c r="M28" s="9">
         <f t="shared" si="6"/>
-        <v>5.28214028555246</v>
+        <v>5.2728407498911656</v>
       </c>
       <c r="N28">
         <v>5.2728334153506999</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>9.3068702017600202E-3</v>
+        <v>7.334540465642192E-6</v>
       </c>
     </row>
     <row r="29" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M29" s="1">
+      <c r="M29" s="9">
         <f t="shared" si="6"/>
-        <v>6.068035670095659</v>
+        <v>6.0573525782378237</v>
       </c>
       <c r="N29">
         <v>6.0572806989364496</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>1.0754971159209425E-2</v>
+        <v>7.1879301374089266E-5</v>
       </c>
     </row>
     <row r="30" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M30" s="1">
+      <c r="M30" s="9">
         <f t="shared" si="6"/>
-        <v>6.0635062758384137</v>
+        <v>6.0528311577830918</v>
       </c>
       <c r="N30">
         <v>6.0527597779194799</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>1.0746497918933784E-2</v>
+        <v>7.137986361183124E-5</v>
       </c>
     </row>
     <row r="31" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M31" s="1">
+      <c r="M31" s="9">
         <f t="shared" si="6"/>
-        <v>5.4457474664811061</v>
+        <v>5.4361599000041165</v>
       </c>
       <c r="N31">
         <v>5.4361422322025001</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>9.6052342786059342E-3</v>
+        <v>1.7667801616383372E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>5.3010337682152526</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>5.19171875408622</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>5.4361599009469872</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_multizone/永田先生の放射計算正解値.xlsx
+++ b/test/test_multizone/永田先生の放射計算正解値.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_multizone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABD695-23D8-49B0-871E-BF16612CC589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A237EE-05F4-4E12-811D-6A2D95D092A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1524" windowWidth="18924" windowHeight="10296" xr2:uid="{D7606B39-A6BC-4A8B-9D07-29F5962C51C7}"/>
+    <workbookView xWindow="-450" yWindow="3060" windowWidth="15090" windowHeight="11385" xr2:uid="{D7606B39-A6BC-4A8B-9D07-29F5962C51C7}"/>
   </bookViews>
   <sheets>
     <sheet name="標準プランLDK" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>北外壁</t>
     <rPh sb="0" eb="1">
@@ -332,9 +332,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000"/>
+    <numFmt numFmtId="183" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -417,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,13 +443,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,9 +573,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>標準プランLDK!$A$3:$A$13</c:f>
+              <c:f>標準プランLDK!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>北外壁</c:v>
                 </c:pt>
@@ -603,6 +607,9 @@
                   <c:v>内壁天井（その他居室）</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>内壁天井（その他居室）</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>間仕切り壁（その他居室）</c:v>
                 </c:pt>
               </c:strCache>
@@ -610,42 +617,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>標準プランLDK!$F$3:$F$13</c:f>
+              <c:f>標準プランLDK!$F$3:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.3010337677337338</c:v>
+                  <c:v>5.3033300464438184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1917187539428671</c:v>
+                  <c:v>5.1924019185637276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8488858038262128</c:v>
+                  <c:v>5.8618268866549164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2396799316636056</c:v>
+                  <c:v>5.2410530123187256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4936025563150341</c:v>
+                  <c:v>5.4991157216849036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3697426315605323</c:v>
+                  <c:v>5.3731293217248428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.71741386450657</c:v>
+                  <c:v>6.7611988692638221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2728407498911656</c:v>
+                  <c:v>5.2747070296908669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0573525782378237</c:v>
+                  <c:v>6.0757636755188624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0528311577830918</c:v>
+                  <c:v>5.5218668781501528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4361599000041165</c:v>
+                  <c:v>5.5218668781501528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4406602569195925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,9 +745,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>標準プランLDK!$A$3:$A$13</c:f>
+              <c:f>標準プランLDK!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>北外壁</c:v>
                 </c:pt>
@@ -769,6 +779,9 @@
                   <c:v>内壁天井（その他居室）</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>内壁天井（その他居室）</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>間仕切り壁（その他居室）</c:v>
                 </c:pt>
               </c:strCache>
@@ -776,10 +789,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>標準プランLDK!$L$3:$L$13</c:f>
+              <c:f>標準プランLDK!$L$3:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.334170665134212</c:v>
                 </c:pt>
@@ -808,9 +821,12 @@
                   <c:v>6.0520165676203357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.048469046555998</c:v>
+                  <c:v>5.563975721969153</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5.563975721969153</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5.4810590125774628</c:v>
                 </c:pt>
               </c:numCache>
@@ -1185,9 +1201,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>標準プランLDK!$A$3:$A$13</c:f>
+              <c:f>標準プランLDK!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>北外壁</c:v>
                 </c:pt>
@@ -1219,6 +1235,9 @@
                   <c:v>内壁天井（その他居室）</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>内壁天井（その他居室）</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>間仕切り壁（その他居室）</c:v>
                 </c:pt>
               </c:strCache>
@@ -1226,42 +1245,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>標準プランLDK!$G$3:$G$13</c:f>
+              <c:f>標準プランLDK!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>91.661735502174849</c:v>
+                  <c:v>92.973642280306549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.217456677957262</c:v>
+                  <c:v>29.626697060535836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>365.36536166985195</c:v>
+                  <c:v>371.25379554342459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.972507293654992</c:v>
+                  <c:v>57.778040712849524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>194.91625841074497</c:v>
+                  <c:v>197.81871328735699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.45808474531</c:v>
+                  <c:v>131.33687674664455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1707.320059325473</c:v>
+                  <c:v>-1708.7349707966637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.833523006494843</c:v>
+                  <c:v>76.912796881144061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323.86833518279127</c:v>
+                  <c:v>331.18123480103361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>322.54097009638105</c:v>
+                  <c:v>149.98971413322371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117.48582674011126</c:v>
+                  <c:v>149.98971413322371</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.87374521692102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,9 +1373,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>標準プランLDK!$A$3:$A$13</c:f>
+              <c:f>標準プランLDK!$A$3:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>北外壁</c:v>
                 </c:pt>
@@ -1385,6 +1407,9 @@
                   <c:v>内壁天井（その他居室）</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>内壁天井（その他居室）</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>間仕切り壁（その他居室）</c:v>
                 </c:pt>
               </c:strCache>
@@ -1392,42 +1417,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>標準プランLDK!$M$3:$M$13</c:f>
+              <c:f>標準プランLDK!$M$3:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>89.966628573229656</c:v>
+                  <c:v>90.831694178719587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.596354909278663</c:v>
+                  <c:v>28.871320454467057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>358.23643203157815</c:v>
+                  <c:v>361.68102055177263</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.838121853662045</c:v>
+                  <c:v>56.375028031617134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191.76496696542495</c:v>
+                  <c:v>193.60886486279554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.21834776622005</c:v>
+                  <c:v>128.44160375330233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1663.96030528389</c:v>
+                  <c:v>-1657.6647598107736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.384900062959815</c:v>
+                  <c:v>75.100141032114237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>312.40960242126721</c:v>
+                  <c:v>316.67123480745835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>311.17910047524464</c:v>
+                  <c:v>145.07895897434008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.36585022502793</c:v>
+                  <c:v>145.07895897434008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.92593418984809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,13 +2820,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2828,13 +2856,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3263,22 +3291,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88471ED-63A1-4579-934F-8023F43885F4}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3294,7 +3323,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3318,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="6">
-        <v>1.1838381541118148</v>
+        <v>1.1680287363653139</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
@@ -3333,7 +3362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3341,23 +3370,23 @@
         <v>4.9775</v>
       </c>
       <c r="C3" s="4">
-        <f>B3/$B$14</f>
+        <f>B3/$B$15</f>
         <v>3.8082960027237642E-2</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D13" si="0">0.5*(1-SIGN(1-4*C3/$I$2)*SQRT(ABS(1-4*C3/$I$2)))</f>
-        <v>3.3276376757945703E-2</v>
+        <f t="shared" ref="D3:D14" si="0">0.5*(1-SIGN(1-4*C3/$I$2)*SQRT(ABS(1-4*C3/$I$2)))</f>
+        <v>3.3743066353314921E-2</v>
       </c>
       <c r="E3" s="1">
         <v>0.9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
         <f>E3/(1-E3*D3)*4*0.0000000567*($I$3+273.15)^3</f>
-        <v>5.3010337677337338</v>
+        <v>5.3033300464438184</v>
       </c>
       <c r="G3" s="5">
         <f>B3*F3*($I$4-P3)</f>
-        <v>91.661735502174849</v>
+        <v>92.973642280306549</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -3367,18 +3396,18 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L13" si="1">E3/(1-E3*C3)*4*0.0000000568*($I$3+273.15)^3</f>
+        <f t="shared" ref="L3:L14" si="1">E3/(1-E3*C3)*4*0.0000000568*($I$3+273.15)^3</f>
         <v>5.334170665134212</v>
       </c>
       <c r="M3" s="5">
         <f>B3*L3*($O$4-P3)</f>
-        <v>89.966628573229656</v>
+        <v>90.831694178719587</v>
       </c>
       <c r="P3" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3386,30 +3415,30 @@
         <v>1.62</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C13" si="2">B4/$B$14</f>
+        <f>B4/$B$15</f>
         <v>1.2394654996308384E-2</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>1.0581865665523826E-2</v>
+        <v>1.0726662362024131E-2</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F13" si="3">E4/(1-E4*D4)*4*0.0000000567*($I$3+273.15)^3</f>
-        <v>5.1917187539428671</v>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F14" si="2">E4/(1-E4*D4)*4*0.0000000567*($I$3+273.15)^3</f>
+        <v>5.1924019185637276</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G13" si="4">B4*F4*($I$4-P4)</f>
-        <v>29.217456677957262</v>
+        <f t="shared" ref="G4:G14" si="3">B4*F4*($I$4-P4)</f>
+        <v>29.626697060535836</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1">
-        <f>SUMPRODUCT(B3:B13,F3:F13,P3:P13)/SUMPRODUCT(B3:B13,F3:F13)</f>
-        <v>21.473891391258764</v>
+        <f>SUMPRODUCT(B3:B14,F3:F14,P3:P14)/SUMPRODUCT(B3:B14,F3:F14)</f>
+        <v>21.522085711409588</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="3">
@@ -3417,21 +3446,21 @@
         <v>5.2094562291481132</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M13" si="5">B4*L4*($O$4-P4)</f>
-        <v>28.596354909278663</v>
+        <f t="shared" ref="M4:M14" si="4">B4*L4*($O$4-P4)</f>
+        <v>28.871320454467057</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="7">
-        <f>SUMPRODUCT(B3:B13,L3:L13,P3:P13)/SUMPRODUCT(B3:B13,L3:L13)</f>
-        <v>21.38846707894119</v>
+        <f>SUMPRODUCT(B3:B14,L3:L14,P3:P14)/SUMPRODUCT(B3:B14,L3:L14)</f>
+        <v>21.421048563562913</v>
       </c>
       <c r="P4" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3439,23 +3468,23 @@
         <v>17.981999999999999</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="2"/>
+        <f>B5/$B$15</f>
         <v>0.13758067045902306</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>0.13423474277704123</v>
+        <v>0.13639138067175516</v>
       </c>
       <c r="E5" s="1">
         <v>0.9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
+        <v>5.8618268866549164</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8488858038262128</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="4"/>
-        <v>365.36536166985195</v>
+        <v>371.25379554342459</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="3">
@@ -3463,14 +3492,14 @@
         <v>5.8793387934957151</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="5"/>
-        <v>358.23643203157815</v>
+        <f t="shared" si="4"/>
+        <v>361.68102055177263</v>
       </c>
       <c r="P5" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3478,23 +3507,23 @@
         <v>3.13</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="2"/>
+        <f>B6/$B$15</f>
         <v>2.3947697616324221E-2</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
-        <v>2.0655511272904825E-2</v>
+        <v>2.0941194986823841E-2</v>
       </c>
       <c r="E6" s="1">
         <v>0.9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
+        <f t="shared" si="2"/>
+        <v>5.2410530123187256</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>5.2396799316636056</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="4"/>
-        <v>56.972507293654992</v>
+        <v>57.778040712849524</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="3">
@@ -3502,14 +3531,14 @@
         <v>5.2648159562097367</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="5"/>
-        <v>55.838121853662045</v>
+        <f t="shared" si="4"/>
+        <v>56.375028031617134</v>
       </c>
       <c r="P6" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3517,23 +3546,23 @@
         <v>10.2135</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="2"/>
+        <f>B7/$B$15</f>
         <v>7.8143709138762757E-2</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>7.1058019488296542E-2</v>
+        <v>7.2100729803511177E-2</v>
       </c>
       <c r="E7" s="1">
         <v>0.9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
+        <v>5.4991157216849036</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>5.4936025563150341</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="4"/>
-        <v>194.91625841074497</v>
+        <v>197.81871328735699</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="3">
@@ -3541,14 +3570,14 @@
         <v>5.5410415424977923</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="5"/>
-        <v>191.76496696542495</v>
+        <f t="shared" si="4"/>
+        <v>193.60886486279554</v>
       </c>
       <c r="P7" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3556,23 +3585,23 @@
         <v>6.94</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="2"/>
+        <f>B8/$B$15</f>
         <v>5.3098089922456904E-2</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>4.7067875731322595E-2</v>
+        <v>4.7738543519847798E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
+        <v>5.3731293217248428</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>5.3697426315605323</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="4"/>
-        <v>129.45808474531</v>
+        <v>131.33687674664455</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="3">
@@ -3580,14 +3609,14 @@
         <v>5.4098722527482046</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="5"/>
-        <v>127.21834776622005</v>
+        <f t="shared" si="4"/>
+        <v>128.44160375330233</v>
       </c>
       <c r="P8" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3595,23 +3624,23 @@
         <v>29.81</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="2"/>
+        <f>B9/$B$15</f>
         <v>0.22807695397527958</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0.26053997792068251</v>
+        <v>0.26604821127296963</v>
       </c>
       <c r="E9" s="1">
         <v>0.9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>6.7611988692638221</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>6.71741386450657</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="4"/>
-        <v>-1707.320059325473</v>
+        <v>-1708.7349707966637</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="3">
@@ -3619,8 +3648,8 @@
         <v>6.4818730284907371</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="5"/>
-        <v>-1663.96030528389</v>
+        <f t="shared" si="4"/>
+        <v>-1657.6647598107736</v>
       </c>
       <c r="P9" s="1">
         <v>30</v>
@@ -3629,7 +3658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3637,23 +3666,23 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="2"/>
+        <f>B10/$B$15</f>
         <v>3.1675229435010312E-2</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>2.7513370564825612E-2</v>
+        <v>2.7896765616493957E-2</v>
       </c>
       <c r="E10" s="1">
         <v>0.9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>5.2747070296908669</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>5.2728407498911656</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="4"/>
-        <v>75.833523006494843</v>
+        <v>76.912796881144061</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="3">
@@ -3661,14 +3690,14 @@
         <v>5.3025060437005891</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="5"/>
-        <v>74.384900062959815</v>
+        <f t="shared" si="4"/>
+        <v>75.100141032114237</v>
       </c>
       <c r="P10" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3676,23 +3705,23 @@
         <v>21.612500000000001</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="2"/>
+        <f>B11/$B$15</f>
         <v>0.16535770438747838</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>0.16785442445731341</v>
+        <v>0.17071273026814471</v>
       </c>
       <c r="E11" s="1">
         <v>0.9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>6.0757636755188624</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>6.0573525782378237</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="4"/>
-        <v>323.86833518279127</v>
+        <v>331.18123480103361</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="3">
@@ -3700,276 +3729,315 @@
         <v>6.0520165676203357</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="5"/>
-        <v>312.40960242126721</v>
+        <f t="shared" si="4"/>
+        <v>316.67123480745835</v>
       </c>
       <c r="P11" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>21.54</v>
+        <v>10.77</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.16480300532128553</v>
+        <f>B12/$B$15</f>
+        <v>8.2401502660642764E-2</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
-        <v>0.16714981863469519</v>
+        <v>7.6381652954282175E-2</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5218668781501528</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>6.0528311577830918</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="4"/>
-        <v>322.54097009638105</v>
+        <v>149.98971413322371</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>6.048469046555998</v>
+        <v>5.563975721969153</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="5"/>
-        <v>311.17910047524464</v>
+        <f t="shared" si="4"/>
+        <v>145.07895897434008</v>
       </c>
       <c r="P12" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>8.7360000000000007</v>
+        <v>10.77</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="2"/>
-        <v>6.6839324720833357E-2</v>
+        <f>B13/$B$15</f>
+        <v>8.2401502660642764E-2</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>6.0068016731543383E-2</v>
+        <f t="shared" ref="D13" si="5">0.5*(1-SIGN(1-4*C13/$I$2)*SQRT(ABS(1-4*C13/$I$2)))</f>
+        <v>7.6381652954282175E-2</v>
       </c>
       <c r="E13" s="1">
         <v>0.9</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="3"/>
-        <v>5.4361599000041165</v>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13" si="6">E13/(1-E13*D13)*4*0.0000000567*($I$3+273.15)^3</f>
+        <v>5.5218668781501528</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="4"/>
-        <v>117.48582674011126</v>
+        <f t="shared" ref="G13" si="7">B13*F13*($I$4-P13)</f>
+        <v>149.98971413322371</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="3">
+        <f t="shared" ref="L13" si="8">E13/(1-E13*C13)*4*0.0000000568*($I$3+273.15)^3</f>
+        <v>5.563975721969153</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" ref="M13" si="9">B13*L13*($O$4-P13)</f>
+        <v>145.07895897434008</v>
+      </c>
+      <c r="P13" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.7360000000000007</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B14/$B$15</f>
+        <v>6.6839324720833357E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0937409201370529E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>5.4406602569195925</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>119.87374521692102</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3">
         <f t="shared" si="1"/>
         <v>5.4810590125774628</v>
       </c>
-      <c r="M13" s="5">
-        <f t="shared" si="5"/>
-        <v>114.36585022502793</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>115.92593418984809</v>
+      </c>
+      <c r="P14" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <f>SUM(B3:B13)</f>
+      <c r="B15" s="3">
+        <f>SUM(B3:B14)</f>
         <v>130.70149999999998</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8">
-        <f>SUM(D3:D13)</f>
-        <v>1.0000000000020948</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8">
+        <f>SUM(D3:D14)</f>
+        <v>0.99999999996482014</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
-    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M19" t="s">
+    <row r="20" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M20" t="s">
+    <row r="21" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
         <v>27</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M21" s="9">
+    <row r="22" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M22" s="9">
         <f>F3</f>
-        <v>5.3010337677337338</v>
-      </c>
-      <c r="N21">
+        <v>5.3033300464438184</v>
+      </c>
+      <c r="N22">
         <v>5.3010247448551802</v>
       </c>
-      <c r="O21">
-        <f>ABS(M21-N21)</f>
-        <v>9.0228785536439204E-6</v>
+      <c r="O22">
+        <f>ABS(M22-N22)</f>
+        <v>2.3053015886382866E-3</v>
       </c>
     </row>
-    <row r="22" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M22" s="9">
-        <f t="shared" ref="M22:M31" si="6">F4</f>
-        <v>5.1917187539428671</v>
-      </c>
-      <c r="N22">
+    <row r="23" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M23" s="9">
+        <f>F4</f>
+        <v>5.1924019185637276</v>
+      </c>
+      <c r="N23">
         <v>5.1917160677890797</v>
       </c>
-      <c r="O22">
-        <f t="shared" ref="O22:O31" si="7">ABS(M22-N22)</f>
-        <v>2.6861537874012242E-6</v>
+      <c r="O23">
+        <f t="shared" ref="O23:O32" si="10">ABS(M23-N23)</f>
+        <v>6.8585077464788924E-4</v>
       </c>
     </row>
-    <row r="23" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M23" s="9">
-        <f t="shared" si="6"/>
-        <v>5.8488858038262128</v>
-      </c>
-      <c r="N23">
+    <row r="24" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M24" s="9">
+        <f>F5</f>
+        <v>5.8618268866549164</v>
+      </c>
+      <c r="N24">
         <v>5.8488351692565104</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="7"/>
-        <v>5.0634569702445731E-5</v>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>1.2991717398405989E-2</v>
       </c>
     </row>
-    <row r="24" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M24" s="9">
-        <f t="shared" si="6"/>
-        <v>5.2396799316636056</v>
-      </c>
-      <c r="N24">
+    <row r="25" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M25" s="9">
+        <f>F6</f>
+        <v>5.2410530123187256</v>
+      </c>
+      <c r="N25">
         <v>5.2396745343302999</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="7"/>
-        <v>5.3973333056234196E-6</v>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>1.3784779884256082E-3</v>
       </c>
     </row>
-    <row r="25" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M25" s="9">
-        <f t="shared" si="6"/>
-        <v>5.4936025563150341</v>
-      </c>
-      <c r="N25">
+    <row r="26" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M26" s="9">
+        <f>F7</f>
+        <v>5.4991157216849036</v>
+      </c>
+      <c r="N26">
         <v>5.4935809211203601</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="7"/>
-        <v>2.1635194674018976E-5</v>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>5.5348005645434739E-3</v>
       </c>
     </row>
-    <row r="26" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="9">
-        <f t="shared" si="6"/>
-        <v>5.3697426315605323</v>
-      </c>
-      <c r="N26">
+    <row r="27" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M27" s="9">
+        <f>F8</f>
+        <v>5.3731293217248428</v>
+      </c>
+      <c r="N27">
         <v>5.3697293299255504</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="7"/>
-        <v>1.3301634981921495E-5</v>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>3.3999917992924011E-3</v>
       </c>
     </row>
-    <row r="27" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M27" s="9">
-        <f t="shared" si="6"/>
-        <v>6.71741386450657</v>
-      </c>
-      <c r="N27">
+    <row r="28" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M28" s="9">
+        <f>F9</f>
+        <v>6.7611988692638221</v>
+      </c>
+      <c r="N28">
         <v>6.7172447515445697</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="7"/>
-        <v>1.6911296200028403E-4</v>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>4.3954117719252395E-2</v>
       </c>
     </row>
-    <row r="28" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M28" s="9">
-        <f t="shared" si="6"/>
-        <v>5.2728407498911656</v>
-      </c>
-      <c r="N28">
+    <row r="29" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M29" s="9">
+        <f>F10</f>
+        <v>5.2747070296908669</v>
+      </c>
+      <c r="N29">
         <v>5.2728334153506999</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="7"/>
-        <v>7.334540465642192E-6</v>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>1.8736143401669736E-3</v>
       </c>
     </row>
-    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M29" s="9">
-        <f t="shared" si="6"/>
-        <v>6.0573525782378237</v>
-      </c>
-      <c r="N29">
+    <row r="30" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M30" s="9">
+        <f>F11</f>
+        <v>6.0757636755188624</v>
+      </c>
+      <c r="N30">
         <v>6.0572806989364496</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
-        <v>7.1879301374089266E-5</v>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>1.8482976582412824E-2</v>
       </c>
     </row>
-    <row r="30" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M30" s="9">
-        <f t="shared" si="6"/>
-        <v>6.0528311577830918</v>
-      </c>
-      <c r="N30">
+    <row r="31" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M31" s="9">
+        <f>F12</f>
+        <v>5.5218668781501528</v>
+      </c>
+      <c r="N31">
         <v>6.0527597779194799</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
-        <v>7.137986361183124E-5</v>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0.53089289976932719</v>
       </c>
     </row>
-    <row r="31" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M31" s="9">
-        <f t="shared" si="6"/>
-        <v>5.4361599000041165</v>
-      </c>
-      <c r="N31">
+    <row r="32" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M32" s="9">
+        <f t="shared" ref="M32" si="11">F14</f>
+        <v>5.4406602569195925</v>
+      </c>
+      <c r="N32">
         <v>5.4361422322025001</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
-        <v>1.7667801616383372E-5</v>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>4.5180247170923948E-3</v>
       </c>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34">
         <v>5.3010337682152526</v>
       </c>
     </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35">
         <v>5.19171875408622</v>
       </c>
     </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36">
         <v>5.4361599009469872</v>
       </c>
     </row>
